--- a/Data/Exports/MergedDocuments_2-2_2021-08-19-09-23-114.xlsx
+++ b/Data/Exports/MergedDocuments_2-2_2021-08-19-09-23-114.xlsx
@@ -77,22 +77,19 @@
     <x:t>Items</x:t>
   </x:si>
   <x:si>
-    <x:t>Sirius Cybernetics Corp.</x:t>
+    <x:t>CHOAM</x:t>
   </x:si>
   <x:si>
     <x:t>4592 Bell Street New York, NY 10018</x:t>
   </x:si>
   <x:si>
-    <x:t>CHOAM</x:t>
-  </x:si>
-  <x:si>
     <x:t>27 Shield Wall Ave, Carthag, CH 1965 Arrakis</x:t>
   </x:si>
   <x:si>
     <x:t>CHOAM 27 Shield Wall Ave, Carthag, CH 1965 Arrakis</x:t>
   </x:si>
   <x:si>
-    <x:t>2016-01-27</x:t>
+    <x:t>27/01/2016</x:t>
   </x:si>
   <x:si>
     <x:t>2016-02-26</x:t>
@@ -107,13 +104,13 @@
     <x:t>30 days</x:t>
   </x:si>
   <x:si>
-    <x:t>47088.46</x:t>
+    <x:t>47,088.46</x:t>
   </x:si>
   <x:si>
     <x:t>247834.00</x:t>
   </x:si>
   <x:si>
-    <x:t>294922.46</x:t>
+    <x:t>$294,922.46</x:t>
   </x:si>
   <x:si>
     <x:t>USD</x:t>
@@ -137,6 +134,9 @@
 "Address Line 1","CHOAM 27 Shield Ave Carthag CH Arrakis"
 "City","Wall"
 "Zip Postal Code","1965"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016-01-27</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -567,43 +567,43 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -693,46 +693,46 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
